--- a/PlaywrightTests/CMB/QA/Catalog_scf_xlsx.xlsx
+++ b/PlaywrightTests/CMB/QA/Catalog_scf_xlsx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sourcegit\ecat2023\catalog-manager\PlaywrightTests\PlaywrightTests\CMB\QA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RegoMarketplace\smoke-auto-cm\PlaywrightTests\CMB\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B2F3DC6-8B7C-4E3F-8498-77BAD4907831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BCF357-72D0-49DC-8526-E785E1AFABA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-15" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="10500" tabRatio="818" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="3" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="503">
   <si>
     <t>Language Code</t>
   </si>
@@ -943,9 +943,6 @@
     <t>0.18</t>
   </si>
   <si>
-    <t>burton.jpg</t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
@@ -967,18 +964,12 @@
     <t>481</t>
   </si>
   <si>
-    <t>668</t>
-  </si>
-  <si>
     <t>EUR</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>9.1</t>
-  </si>
-  <si>
     <t>74</t>
   </si>
   <si>
@@ -991,15 +982,6 @@
     <t>BX</t>
   </si>
   <si>
-    <t>http://www.snowboarding.com/products/burton/Burton-customx2.jpg</t>
-  </si>
-  <si>
-    <t>CustomXspec</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -1015,9 +997,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>13111308</t>
   </si>
   <si>
@@ -1027,9 +1006,6 @@
     <t>Item with list price</t>
   </si>
   <si>
-    <t>CA</t>
-  </si>
-  <si>
     <t>50</t>
   </si>
   <si>
@@ -1075,12 +1051,6 @@
     <t>CSP6-1551</t>
   </si>
   <si>
-    <t>CSP7-1551</t>
-  </si>
-  <si>
-    <t>CSP8-1551</t>
-  </si>
-  <si>
     <t>110112</t>
   </si>
   <si>
@@ -1111,12 +1081,6 @@
     <t>CSP6-1552</t>
   </si>
   <si>
-    <t>CSP7-1552</t>
-  </si>
-  <si>
-    <t>CSP8-1552</t>
-  </si>
-  <si>
     <t>15478441</t>
   </si>
   <si>
@@ -1144,12 +1108,6 @@
     <t>CSP6-1553</t>
   </si>
   <si>
-    <t>CSP7-1553</t>
-  </si>
-  <si>
-    <t>CSP8-1553</t>
-  </si>
-  <si>
     <t>1111110</t>
   </si>
   <si>
@@ -1177,12 +1135,6 @@
     <t>CSP6-1554</t>
   </si>
   <si>
-    <t>CSP7-1554</t>
-  </si>
-  <si>
-    <t>CSP8-1554</t>
-  </si>
-  <si>
     <t>SIN0001</t>
   </si>
   <si>
@@ -1213,237 +1165,9 @@
     <t>CSP6-1555</t>
   </si>
   <si>
-    <t>CSP7-1555</t>
-  </si>
-  <si>
-    <t>CSP8-1555</t>
-  </si>
-  <si>
     <t>M1122215</t>
   </si>
   <si>
-    <t>Car1</t>
-  </si>
-  <si>
-    <t>13111306</t>
-  </si>
-  <si>
-    <t>Car without aengine and wheels</t>
-  </si>
-  <si>
-    <t>Item with car which should have mandatory for order 1 engine and 4 wheels</t>
-  </si>
-  <si>
-    <t>16508</t>
-  </si>
-  <si>
-    <t>Engine1</t>
-  </si>
-  <si>
-    <t>Wheel1</t>
-  </si>
-  <si>
-    <t>Burton image</t>
-  </si>
-  <si>
-    <t>CustSF0001556</t>
-  </si>
-  <si>
-    <t>CSP4-1556</t>
-  </si>
-  <si>
-    <t>CSP5-1556</t>
-  </si>
-  <si>
-    <t>CSP6-1556</t>
-  </si>
-  <si>
-    <t>CSP7-1556</t>
-  </si>
-  <si>
-    <t>CSP8-1556</t>
-  </si>
-  <si>
-    <t>Car service</t>
-  </si>
-  <si>
-    <t>C001</t>
-  </si>
-  <si>
-    <t>13111307</t>
-  </si>
-  <si>
-    <t>Engine TCP 240h.p./ 540 p.p.l</t>
-  </si>
-  <si>
-    <t>Item which should be marked as mandatory for order with car</t>
-  </si>
-  <si>
-    <t>6608</t>
-  </si>
-  <si>
-    <t>CustSF0001557</t>
-  </si>
-  <si>
-    <t>CSP4-1557</t>
-  </si>
-  <si>
-    <t>CSP5-1557</t>
-  </si>
-  <si>
-    <t>CSP6-1557</t>
-  </si>
-  <si>
-    <t>CSP7-1557</t>
-  </si>
-  <si>
-    <t>CSP8-1557</t>
-  </si>
-  <si>
-    <t>E001</t>
-  </si>
-  <si>
-    <t>Wheel with tire: 195x75R14 84H Michelin Energy</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>wheel.jpg</t>
-  </si>
-  <si>
-    <t>GE.jpg</t>
-  </si>
-  <si>
-    <t>http://www.tyrereviews.co.uk/images/tyres/mps2.jpg</t>
-  </si>
-  <si>
-    <t>GoodYear</t>
-  </si>
-  <si>
-    <t>Michelin</t>
-  </si>
-  <si>
-    <t>CustSF0001558</t>
-  </si>
-  <si>
-    <t>CSP4-1558</t>
-  </si>
-  <si>
-    <t>CSP5-1558</t>
-  </si>
-  <si>
-    <t>CSP6-1558</t>
-  </si>
-  <si>
-    <t>CSP7-1558</t>
-  </si>
-  <si>
-    <t>CSP8-1558</t>
-  </si>
-  <si>
-    <t>W001</t>
-  </si>
-  <si>
-    <t>item.01</t>
-  </si>
-  <si>
-    <t>description.test</t>
-  </si>
-  <si>
-    <t>longdescription.test</t>
-  </si>
-  <si>
-    <t>CustSF0001559</t>
-  </si>
-  <si>
-    <t>CSP4-1559</t>
-  </si>
-  <si>
-    <t>CSP5-1559</t>
-  </si>
-  <si>
-    <t>CSP6-1559</t>
-  </si>
-  <si>
-    <t>CSP7-1559</t>
-  </si>
-  <si>
-    <t>CSP8-1559</t>
-  </si>
-  <si>
-    <t>ims.1</t>
-  </si>
-  <si>
-    <t>LSP008</t>
-  </si>
-  <si>
-    <t>List Price item is here 008</t>
-  </si>
-  <si>
-    <t>999.99</t>
-  </si>
-  <si>
-    <t>98.099</t>
-  </si>
-  <si>
-    <t>97.099</t>
-  </si>
-  <si>
-    <t>96.599</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>CustSF0001580</t>
-  </si>
-  <si>
-    <t>CSP4-1580</t>
-  </si>
-  <si>
-    <t>CSP5-1580</t>
-  </si>
-  <si>
-    <t>CSP6-1580</t>
-  </si>
-  <si>
-    <t>CSP7-1580</t>
-  </si>
-  <si>
-    <t>CSP8-1580</t>
-  </si>
-  <si>
-    <t>BT (GERMANY) GMBH &amp; Co. oH</t>
-  </si>
-  <si>
-    <t>LSP009</t>
-  </si>
-  <si>
-    <t>List Price item is here 009</t>
-  </si>
-  <si>
-    <t>CustSF0001581</t>
-  </si>
-  <si>
-    <t>CSP4-1581</t>
-  </si>
-  <si>
-    <t>CSP5-1581</t>
-  </si>
-  <si>
-    <t>CSP6-1581</t>
-  </si>
-  <si>
-    <t>CSP7-1581</t>
-  </si>
-  <si>
-    <t>CSP8-1581</t>
-  </si>
-  <si>
-    <t>Froehlich + Walter GmbH</t>
-  </si>
-  <si>
     <t>LSP010</t>
   </si>
   <si>
@@ -1468,12 +1192,6 @@
     <t>CSP6-1582</t>
   </si>
   <si>
-    <t>CSP7-1582</t>
-  </si>
-  <si>
-    <t>CSP8-1582</t>
-  </si>
-  <si>
     <t>_BASF manufacturer</t>
   </si>
   <si>
@@ -1501,12 +1219,6 @@
     <t>CSP6-1583</t>
   </si>
   <si>
-    <t>CSP7-1583</t>
-  </si>
-  <si>
-    <t>CSP8-1583</t>
-  </si>
-  <si>
     <t>_AC/DC!$ where "used" with'</t>
   </si>
   <si>
@@ -1531,12 +1243,6 @@
     <t>CSP6-1430</t>
   </si>
   <si>
-    <t>CSP7-1430</t>
-  </si>
-  <si>
-    <t>CSP8-1430</t>
-  </si>
-  <si>
     <t>S1866</t>
   </si>
   <si>
@@ -1883,6 +1589,24 @@
   </si>
   <si>
     <t>XL size, stainless steel strap</t>
+  </si>
+  <si>
+    <t>1key to map</t>
+  </si>
+  <si>
+    <t>1key2</t>
+  </si>
+  <si>
+    <t>1key3</t>
+  </si>
+  <si>
+    <t>1key4</t>
+  </si>
+  <si>
+    <t>2key</t>
+  </si>
+  <si>
+    <t>2 key</t>
   </si>
 </sst>
 </file>
@@ -2555,10 +2279,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5448EA6-A1CF-46AB-9D6F-DB120D3670B5}">
-  <dimension ref="A1:DW18"/>
+  <dimension ref="A1:DW12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A844" sqref="A3:XFD844"/>
+    <sheetView tabSelected="1" topLeftCell="BQ2" workbookViewId="0">
+      <selection activeCell="CB16" sqref="CB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3331,7 +3055,7 @@
     </row>
     <row r="3" spans="1:127">
       <c r="A3" s="12" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>272</v>
@@ -3343,13 +3067,13 @@
         <v>273</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>273</v>
@@ -3370,47 +3094,47 @@
         <v>275</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="Q3" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="AA3" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="R3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="X3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="AA3" s="12" t="s">
-        <v>318</v>
-      </c>
       <c r="AB3" s="12" t="s">
         <v>273</v>
       </c>
@@ -3433,10 +3157,10 @@
         <v>273</v>
       </c>
       <c r="AI3" s="12" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="AJ3" s="12" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="AK3" s="12" t="s">
         <v>278</v>
@@ -3445,7 +3169,7 @@
         <v>278</v>
       </c>
       <c r="AM3" s="12" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AN3" s="12" t="s">
         <v>278</v>
@@ -3457,131 +3181,127 @@
         <v>273</v>
       </c>
       <c r="AQ3" s="12" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="AR3" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="AS3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="AT3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="AU3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="AV3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="AW3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="AX3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="AY3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="AZ3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BA3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BB3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BC3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BD3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BE3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BF3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BG3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BH3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BI3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BJ3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BK3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BL3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BM3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BN3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BO3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BP3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BQ3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BR3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BS3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BT3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BU3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BV3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BW3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BX3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BY3" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="BZ3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="CA3" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="AS3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AT3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AU3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AV3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AX3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AY3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AZ3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BA3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BB3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BC3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BD3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BE3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BF3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BG3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BH3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BI3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BJ3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BK3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BL3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BM3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BN3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BO3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BP3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BQ3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BR3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BS3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BT3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BU3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BV3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BW3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BX3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BY3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BZ3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CA3" s="12" t="s">
-        <v>321</v>
-      </c>
       <c r="CB3" s="12" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="CC3" s="12" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="CD3" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="CE3" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="CF3" s="12" t="s">
-        <v>326</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="CE3" s="12"/>
+      <c r="CF3" s="12"/>
       <c r="CG3" s="12" t="s">
         <v>273</v>
       </c>
@@ -3622,13 +3342,13 @@
         <v>273</v>
       </c>
       <c r="CT3" s="12" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="CU3" s="12" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="CV3" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="CW3" s="12" t="s">
         <v>273</v>
@@ -3714,7 +3434,7 @@
     </row>
     <row r="4" spans="1:127">
       <c r="A4" s="12" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>272</v>
@@ -3726,13 +3446,13 @@
         <v>273</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>273</v>
@@ -3756,7 +3476,7 @@
         <v>276</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="P4" s="12" t="s">
         <v>273</v>
@@ -3828,7 +3548,7 @@
         <v>278</v>
       </c>
       <c r="AM4" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AN4" s="12" t="s">
         <v>278</v>
@@ -3840,10 +3560,10 @@
         <v>273</v>
       </c>
       <c r="AQ4" s="12" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="AR4" s="12" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AS4" s="12" t="s">
         <v>273</v>
@@ -3941,29 +3661,29 @@
       <c r="BX4" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="BY4" s="12" t="s">
-        <v>273</v>
+      <c r="BY4" s="13" t="s">
+        <v>498</v>
       </c>
       <c r="BZ4" s="12" t="s">
         <v>273</v>
       </c>
       <c r="CA4" s="12" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="CB4" s="12" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="CC4" s="12" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="CD4" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="CE4" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="CF4" s="12" t="s">
-        <v>338</v>
+        <v>326</v>
+      </c>
+      <c r="CE4" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="CF4" s="13" t="s">
+        <v>501</v>
       </c>
       <c r="CG4" s="12" t="s">
         <v>273</v>
@@ -4005,13 +3725,13 @@
         <v>273</v>
       </c>
       <c r="CT4" s="12" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="CU4" s="12" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="CV4" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="CW4" s="12" t="s">
         <v>273</v>
@@ -4097,7 +3817,7 @@
     </row>
     <row r="5" spans="1:127">
       <c r="A5" s="12" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>272</v>
@@ -4109,13 +3829,13 @@
         <v>273</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>273</v>
@@ -4136,10 +3856,10 @@
         <v>275</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="P5" s="12" t="s">
         <v>273</v>
@@ -4205,196 +3925,196 @@
         <v>277</v>
       </c>
       <c r="AK5" s="12" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AL5" s="12" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AM5" s="12" t="s">
         <v>279</v>
       </c>
       <c r="AN5" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="AO5" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="AP5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="AQ5" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="AR5" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="AS5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="AT5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="AU5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="AV5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="AW5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="AX5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="AY5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="AZ5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BA5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BB5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BC5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BD5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BE5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BF5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BG5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BH5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BI5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BJ5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BK5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BL5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BM5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BN5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BO5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BP5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BQ5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BR5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BS5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BT5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BU5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BV5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BW5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BX5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BY5" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="BZ5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="CA5" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="CB5" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="CC5" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="CD5" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="CE5" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="CF5" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="CG5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="CH5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="CI5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="CJ5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="CK5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="CL5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="CM5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="CN5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="CO5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="CP5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="CQ5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="CR5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="CS5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="CT5" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="AO5" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="AP5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AQ5" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="AR5" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="AS5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AT5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AU5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AV5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AX5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AY5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AZ5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BA5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BB5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BC5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BD5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BE5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BF5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BG5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BH5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BI5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BJ5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BK5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BL5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BM5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BN5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BO5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BP5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BQ5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BR5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BS5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BT5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BU5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BV5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BW5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BX5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BY5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BZ5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CA5" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="CB5" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="CC5" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="CD5" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="CE5" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="CF5" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="CG5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CH5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CI5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CJ5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CK5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CL5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CM5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CN5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CO5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CP5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CQ5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CR5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CS5" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CT5" s="12" t="s">
-        <v>311</v>
-      </c>
       <c r="CU5" s="12" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="CV5" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CW5" s="12" t="s">
         <v>273</v>
@@ -4480,7 +4200,7 @@
     </row>
     <row r="6" spans="1:127">
       <c r="A6" s="12" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>272</v>
@@ -4492,13 +4212,13 @@
         <v>273</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>273</v>
@@ -4519,10 +4239,10 @@
         <v>275</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="P6" s="12" t="s">
         <v>273</v>
@@ -4588,28 +4308,28 @@
         <v>277</v>
       </c>
       <c r="AK6" s="12" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AL6" s="12" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AM6" s="12" t="s">
         <v>279</v>
       </c>
       <c r="AN6" s="12" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AO6" s="12" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AP6" s="12" t="s">
         <v>273</v>
       </c>
       <c r="AQ6" s="12" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="AR6" s="12" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AS6" s="12" t="s">
         <v>273</v>
@@ -4707,29 +4427,29 @@
       <c r="BX6" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="BY6" s="12" t="s">
-        <v>273</v>
+      <c r="BY6" s="13" t="s">
+        <v>500</v>
       </c>
       <c r="BZ6" s="12" t="s">
         <v>273</v>
       </c>
       <c r="CA6" s="12" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="CB6" s="12" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="CC6" s="12" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="CD6" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="CE6" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="CF6" s="12" t="s">
-        <v>360</v>
+        <v>344</v>
+      </c>
+      <c r="CE6" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="CF6" s="13" t="s">
+        <v>501</v>
       </c>
       <c r="CG6" s="12" t="s">
         <v>273</v>
@@ -4774,10 +4494,10 @@
         <v>273</v>
       </c>
       <c r="CU6" s="12" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="CV6" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="CW6" s="12" t="s">
         <v>273</v>
@@ -4863,7 +4583,7 @@
     </row>
     <row r="7" spans="1:127">
       <c r="A7" s="12" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>272</v>
@@ -4875,13 +4595,13 @@
         <v>273</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>273</v>
@@ -4905,7 +4625,7 @@
         <v>276</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="P7" s="12" t="s">
         <v>273</v>
@@ -4977,7 +4697,7 @@
         <v>278</v>
       </c>
       <c r="AM7" s="12" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="AN7" s="12" t="s">
         <v>278</v>
@@ -4989,10 +4709,10 @@
         <v>273</v>
       </c>
       <c r="AQ7" s="12" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AR7" s="12" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AS7" s="12" t="s">
         <v>273</v>
@@ -5097,22 +4817,22 @@
         <v>273</v>
       </c>
       <c r="CA7" s="12" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="CB7" s="12" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="CC7" s="12" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="CD7" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="CE7" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="CF7" s="12" t="s">
-        <v>372</v>
+        <v>354</v>
+      </c>
+      <c r="CE7" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="CF7" s="13" t="s">
+        <v>501</v>
       </c>
       <c r="CG7" s="12" t="s">
         <v>273</v>
@@ -5157,10 +4877,10 @@
         <v>273</v>
       </c>
       <c r="CU7" s="12" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="CV7" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CW7" s="12" t="s">
         <v>273</v>
@@ -5246,7 +4966,7 @@
     </row>
     <row r="8" spans="1:127">
       <c r="A8" s="12" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>272</v>
@@ -5258,19 +4978,19 @@
         <v>273</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>375</v>
+        <v>299</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>377</v>
+        <v>301</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>273</v>
+        <v>358</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>273</v>
@@ -5288,7 +5008,7 @@
         <v>276</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>378</v>
+        <v>273</v>
       </c>
       <c r="P8" s="12" t="s">
         <v>273</v>
@@ -5348,10 +5068,10 @@
         <v>273</v>
       </c>
       <c r="AI8" s="12" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="AJ8" s="12" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="AK8" s="12" t="s">
         <v>278</v>
@@ -5360,7 +5080,7 @@
         <v>278</v>
       </c>
       <c r="AM8" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AN8" s="12" t="s">
         <v>278</v>
@@ -5372,22 +5092,22 @@
         <v>273</v>
       </c>
       <c r="AQ8" s="12" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AR8" s="12" t="s">
-        <v>281</v>
+        <v>359</v>
       </c>
       <c r="AS8" s="12" t="s">
-        <v>379</v>
+        <v>273</v>
       </c>
       <c r="AT8" s="12" t="s">
-        <v>380</v>
+        <v>273</v>
       </c>
       <c r="AU8" s="12" t="s">
         <v>273</v>
       </c>
       <c r="AV8" s="12" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="AW8" s="12" t="s">
         <v>273</v>
@@ -5411,16 +5131,16 @@
         <v>273</v>
       </c>
       <c r="BD8" s="12" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="BE8" s="12" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="BF8" s="12" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="BG8" s="12" t="s">
-        <v>381</v>
+        <v>273</v>
       </c>
       <c r="BH8" s="12" t="s">
         <v>273</v>
@@ -5444,16 +5164,16 @@
         <v>273</v>
       </c>
       <c r="BO8" s="12" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="BP8" s="12" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="BQ8" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="BR8" s="12" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="BS8" s="12" t="s">
         <v>273</v>
@@ -5480,23 +5200,19 @@
         <v>273</v>
       </c>
       <c r="CA8" s="12" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="CB8" s="12" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="CC8" s="12" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="CD8" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="CE8" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CF8" s="12" t="s">
-        <v>387</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="CE8" s="12"/>
+      <c r="CF8" s="12"/>
       <c r="CG8" s="12" t="s">
         <v>273</v>
       </c>
@@ -5537,13 +5253,13 @@
         <v>273</v>
       </c>
       <c r="CT8" s="12" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="CU8" s="12" t="s">
-        <v>389</v>
+        <v>273</v>
       </c>
       <c r="CV8" s="12" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="CW8" s="12" t="s">
         <v>273</v>
@@ -5629,7 +5345,7 @@
     </row>
     <row r="9" spans="1:127">
       <c r="A9" s="12" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>272</v>
@@ -5641,19 +5357,19 @@
         <v>273</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>390</v>
+        <v>299</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>392</v>
+        <v>301</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>273</v>
+        <v>367</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>273</v>
@@ -5671,7 +5387,7 @@
         <v>276</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>393</v>
+        <v>273</v>
       </c>
       <c r="P9" s="12" t="s">
         <v>273</v>
@@ -5740,10 +5456,10 @@
         <v>278</v>
       </c>
       <c r="AL9" s="12" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="AM9" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AN9" s="12" t="s">
         <v>278</v>
@@ -5755,10 +5471,10 @@
         <v>273</v>
       </c>
       <c r="AQ9" s="12" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AR9" s="12" t="s">
-        <v>273</v>
+        <v>368</v>
       </c>
       <c r="AS9" s="12" t="s">
         <v>273</v>
@@ -5863,23 +5579,19 @@
         <v>273</v>
       </c>
       <c r="CA9" s="12" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="CB9" s="12" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="CC9" s="12" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="CD9" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="CE9" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="CF9" s="12" t="s">
-        <v>399</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="CE9" s="12"/>
+      <c r="CF9" s="12"/>
       <c r="CG9" s="12" t="s">
         <v>273</v>
       </c>
@@ -5920,13 +5632,13 @@
         <v>273</v>
       </c>
       <c r="CT9" s="12" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="CU9" s="12" t="s">
-        <v>400</v>
+        <v>273</v>
       </c>
       <c r="CV9" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="CW9" s="12" t="s">
         <v>273</v>
@@ -6012,7 +5724,7 @@
     </row>
     <row r="10" spans="1:127">
       <c r="A10" s="12" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>272</v>
@@ -6024,13 +5736,13 @@
         <v>273</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>273</v>
@@ -6054,7 +5766,7 @@
         <v>276</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P10" s="12" t="s">
         <v>273</v>
@@ -6126,7 +5838,7 @@
         <v>278</v>
       </c>
       <c r="AM10" s="12" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="AN10" s="12" t="s">
         <v>278</v>
@@ -6138,16 +5850,16 @@
         <v>273</v>
       </c>
       <c r="AQ10" s="12" t="s">
-        <v>402</v>
+        <v>280</v>
       </c>
       <c r="AR10" s="12" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="AS10" s="12" t="s">
-        <v>404</v>
+        <v>273</v>
       </c>
       <c r="AT10" s="12" t="s">
-        <v>405</v>
+        <v>273</v>
       </c>
       <c r="AU10" s="12" t="s">
         <v>273</v>
@@ -6177,10 +5889,10 @@
         <v>273</v>
       </c>
       <c r="BD10" s="12" t="s">
-        <v>406</v>
+        <v>273</v>
       </c>
       <c r="BE10" s="12" t="s">
-        <v>407</v>
+        <v>273</v>
       </c>
       <c r="BF10" s="12" t="s">
         <v>273</v>
@@ -6210,10 +5922,10 @@
         <v>273</v>
       </c>
       <c r="BO10" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="BP10" s="12" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="BQ10" s="12" t="s">
         <v>273</v>
@@ -6246,23 +5958,19 @@
         <v>273</v>
       </c>
       <c r="CA10" s="12" t="s">
-        <v>408</v>
+        <v>377</v>
       </c>
       <c r="CB10" s="12" t="s">
-        <v>409</v>
+        <v>378</v>
       </c>
       <c r="CC10" s="12" t="s">
-        <v>410</v>
+        <v>379</v>
       </c>
       <c r="CD10" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="CE10" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="CF10" s="12" t="s">
-        <v>413</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="CE10" s="12"/>
+      <c r="CF10" s="12"/>
       <c r="CG10" s="12" t="s">
         <v>273</v>
       </c>
@@ -6303,13 +6011,13 @@
         <v>273</v>
       </c>
       <c r="CT10" s="12" t="s">
-        <v>388</v>
+        <v>296</v>
       </c>
       <c r="CU10" s="12" t="s">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="CV10" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="CW10" s="12" t="s">
         <v>273</v>
@@ -6394,38 +6102,20 @@
       </c>
     </row>
     <row r="11" spans="1:127">
-      <c r="A11" s="12" t="s">
-        <v>415</v>
+      <c r="A11" t="s">
+        <v>442</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>306</v>
+      <c r="E11">
+        <v>11111809</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>273</v>
+        <v>443</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
       </c>
       <c r="L11" s="12" t="s">
         <v>274</v>
@@ -6434,381 +6124,57 @@
         <v>275</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="R11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="S11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="T11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="U11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="V11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="W11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="X11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AC11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AF11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AG11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AH11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI11" s="12" t="s">
-        <v>296</v>
+        <v>288</v>
+      </c>
+      <c r="O11">
+        <v>14.25</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>277</v>
       </c>
       <c r="AJ11" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="AK11" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="AL11" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="AM11" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="AN11" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="AO11" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="AP11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AQ11" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="AR11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AS11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AT11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AU11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AV11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AX11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AY11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AZ11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BA11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BB11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BC11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BD11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BE11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BF11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BG11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BH11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BI11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BJ11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BK11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BL11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BM11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BN11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BO11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BP11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BQ11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BR11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BS11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BT11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BU11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BV11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BW11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BX11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BY11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BZ11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CA11" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="CB11" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="CC11" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="CD11" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="CE11" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="CF11" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="CG11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CH11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CI11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CJ11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CK11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CL11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CM11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CN11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CO11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CP11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CQ11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CR11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CS11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CT11" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="CU11" s="12" t="s">
-        <v>273</v>
+        <v>277</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
+        <v>2</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
+        <v>1</v>
+      </c>
+      <c r="AQ11">
+        <v>0.19</v>
+      </c>
+      <c r="CT11" t="s">
+        <v>445</v>
       </c>
       <c r="CV11" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="CW11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CX11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CY11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CZ11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DA11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DB11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DC11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DD11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DE11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DF11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DG11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DH11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DI11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DJ11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DK11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DL11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DM11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DN11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DO11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DP11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DQ11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DR11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DS11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DT11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DU11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DV11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DW11" s="12" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:127">
-      <c r="A12" s="12" t="s">
-        <v>425</v>
+      <c r="A12" t="s">
+        <v>444</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>273</v>
+      <c r="E12">
+        <v>11111809</v>
+      </c>
+      <c r="F12">
+        <v>321</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>274</v>
@@ -6817,1996 +6183,40 @@
         <v>275</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="R12" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="S12" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="T12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="U12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="V12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="W12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="X12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y12" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="Z12" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA12" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="AB12" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="AC12" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="AD12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AF12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AG12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AH12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI12" s="12" t="s">
-        <v>309</v>
+        <v>288</v>
+      </c>
+      <c r="O12">
+        <v>55.18</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>277</v>
       </c>
       <c r="AJ12" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="AK12" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="AL12" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="AM12" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="AN12" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="AO12" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="AP12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AQ12" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="AR12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AS12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AT12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AU12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AV12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AX12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AY12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AZ12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BA12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BB12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BC12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BD12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BE12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BF12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BG12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BH12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BI12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BJ12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BK12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BL12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BM12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BN12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BO12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BP12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BQ12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BR12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BS12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BT12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BU12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BV12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BW12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BX12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BY12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BZ12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CA12" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="CB12" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="CC12" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="CD12" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="CE12" s="12" t="s">
-        <v>436</v>
-      </c>
-      <c r="CF12" s="12" t="s">
-        <v>437</v>
-      </c>
-      <c r="CG12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CH12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CI12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CJ12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CK12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CL12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CM12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CN12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CO12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CP12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CQ12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CR12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CS12" s="12" t="s">
-        <v>273</v>
+        <v>277</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
+        <v>2</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
+        <v>1</v>
+      </c>
+      <c r="AQ12">
+        <v>0.19</v>
       </c>
       <c r="CT12" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="CU12" s="12" t="s">
-        <v>273</v>
+        <v>445</v>
       </c>
       <c r="CV12" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="CW12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CX12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CY12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CZ12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DA12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DB12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DC12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DD12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DE12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DF12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DG12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DH12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DI12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DJ12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DK12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DL12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DM12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DN12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DO12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DP12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DQ12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DR12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DS12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DT12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DU12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DV12" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DW12" s="12" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:127">
-      <c r="A13" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="R13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="S13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="V13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="W13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="X13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AC13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AF13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AG13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AH13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI13" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="AJ13" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="AK13" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="AL13" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="AM13" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="AN13" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="AO13" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="AP13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AQ13" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="AR13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AS13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AT13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AU13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AV13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AX13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AY13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AZ13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BA13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BB13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BC13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BD13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BE13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BF13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BG13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BH13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BI13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BJ13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BK13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BL13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BM13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BN13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BO13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BP13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BQ13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BR13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BS13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BT13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BU13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BV13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BW13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BX13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BY13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BZ13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CA13" s="12" t="s">
-        <v>441</v>
-      </c>
-      <c r="CB13" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="CC13" s="12" t="s">
-        <v>443</v>
-      </c>
-      <c r="CD13" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="CE13" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="CF13" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="CG13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CH13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CI13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CJ13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CK13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CL13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CM13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CN13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CO13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CP13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CQ13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CR13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CS13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CT13" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="CU13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CV13" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="CW13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CX13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CY13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CZ13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DA13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DB13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DC13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DD13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DE13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DF13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DG13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DH13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DI13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DJ13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DK13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DL13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DM13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DN13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DO13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DP13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DQ13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DR13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DS13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DT13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DU13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DV13" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DW13" s="12" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="14" spans="1:127">
-      <c r="A14" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="R14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="S14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="T14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="U14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="V14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="W14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="X14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AC14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AF14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AG14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AH14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI14" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="AJ14" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="AK14" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="AL14" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="AM14" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="AN14" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="AO14" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="AP14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AQ14" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="AR14" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="AS14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AT14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AU14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AV14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AX14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AY14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AZ14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BA14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BB14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BC14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BD14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BE14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BF14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BG14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BH14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BI14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BJ14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BK14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BL14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BM14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BN14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BO14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BP14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BQ14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BR14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BS14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BT14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BU14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BV14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BW14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BX14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BY14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BZ14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CA14" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="CB14" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="CC14" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="CD14" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="CE14" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="CF14" s="12" t="s">
-        <v>457</v>
-      </c>
-      <c r="CG14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CH14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CI14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CJ14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CK14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CL14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CM14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CN14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CO14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CP14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CQ14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CR14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CS14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CT14" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="CU14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CV14" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="CW14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CX14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CY14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CZ14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DA14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DB14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DC14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DD14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DE14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DF14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DG14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DH14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DI14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DJ14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DK14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DL14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DM14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DN14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DO14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DP14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DQ14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DR14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DS14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DT14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DU14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DV14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DW14" s="12" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="15" spans="1:127">
-      <c r="A15" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="P15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="R15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="S15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="T15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="U15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="V15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="W15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="X15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AC15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AF15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AG15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AH15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI15" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="AJ15" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="AK15" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="AL15" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="AM15" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="AN15" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="AO15" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="AP15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AQ15" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="AR15" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="AS15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AT15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AU15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AV15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AX15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AY15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AZ15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BA15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BB15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BC15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BD15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BE15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BF15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BG15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BH15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BI15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BJ15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BK15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BL15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BM15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BN15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BO15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BP15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BQ15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BR15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BS15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BT15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BU15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BV15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BW15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BX15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BY15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BZ15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CA15" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="CB15" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="CC15" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="CD15" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="CE15" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="CF15" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="CG15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CH15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CI15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CJ15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CK15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CL15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CM15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CN15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CO15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CP15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CQ15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CR15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CS15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CT15" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="CU15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CV15" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="CW15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CX15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CY15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CZ15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DA15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DB15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DC15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DD15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DE15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DF15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DG15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DH15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DI15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DJ15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DK15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DL15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DM15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DN15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DO15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DP15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DQ15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DR15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DS15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DT15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DU15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DV15" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DW15" s="12" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="16" spans="1:127">
-      <c r="A16" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>471</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>471</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="R16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="S16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="T16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="U16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="V16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="W16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="X16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AC16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AF16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AG16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AH16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI16" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="AJ16" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="AK16" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="AL16" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="AM16" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="AN16" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="AO16" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="AP16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AQ16" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="AR16" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="AS16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AT16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AU16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AV16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AX16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AY16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AZ16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BA16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BB16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BC16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BD16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BE16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BF16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BG16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BH16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BI16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BJ16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BK16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BL16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BM16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BN16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BO16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BP16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BQ16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BR16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BS16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BT16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BU16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BV16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BW16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BX16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BY16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="BZ16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CA16" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="CB16" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="CC16" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="CD16" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="CE16" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="CF16" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="CG16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CH16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CI16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CJ16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CK16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CL16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CM16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CN16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CO16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CP16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CQ16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CR16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CS16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CT16" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="CU16" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="CV16" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="CW16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CX16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CY16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="CZ16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DA16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DB16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DC16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DD16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DE16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DF16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DG16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DH16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DI16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DJ16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DK16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DL16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DM16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DN16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DO16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DP16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DQ16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DR16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DS16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DT16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DU16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DV16" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="DW16" s="12" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="17" spans="1:100">
-      <c r="A17" t="s">
-        <v>540</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="E17">
-        <v>11111809</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>541</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="O17">
-        <v>14.25</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>277</v>
-      </c>
-      <c r="AJ17" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="AK17">
-        <v>1</v>
-      </c>
-      <c r="AL17">
-        <v>1</v>
-      </c>
-      <c r="AM17">
-        <v>2</v>
-      </c>
-      <c r="AN17">
-        <v>1</v>
-      </c>
-      <c r="AO17">
-        <v>1</v>
-      </c>
-      <c r="AQ17">
-        <v>0.19</v>
-      </c>
-      <c r="CT17" t="s">
-        <v>543</v>
-      </c>
-      <c r="CV17" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="18" spans="1:100">
-      <c r="A18" t="s">
-        <v>542</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="E18">
-        <v>11111809</v>
-      </c>
-      <c r="F18">
-        <v>321</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="O18">
-        <v>55.18</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>277</v>
-      </c>
-      <c r="AJ18" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="AK18">
-        <v>1</v>
-      </c>
-      <c r="AL18">
-        <v>1</v>
-      </c>
-      <c r="AM18">
-        <v>2</v>
-      </c>
-      <c r="AN18">
-        <v>1</v>
-      </c>
-      <c r="AO18">
-        <v>1</v>
-      </c>
-      <c r="AQ18">
-        <v>0.19</v>
-      </c>
-      <c r="CT18" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="CV18" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -8829,434 +6239,434 @@
   <sheetData>
     <row r="1" spans="1:44">
       <c r="A1" s="11" t="s">
-        <v>480</v>
+        <v>382</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>481</v>
+        <v>383</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>482</v>
+        <v>384</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>483</v>
+        <v>385</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>484</v>
+        <v>386</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>485</v>
+        <v>387</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>486</v>
+        <v>388</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>487</v>
+        <v>389</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>488</v>
+        <v>390</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>489</v>
+        <v>391</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>490</v>
+        <v>392</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>491</v>
+        <v>393</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>492</v>
+        <v>394</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>493</v>
+        <v>395</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>494</v>
+        <v>396</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>495</v>
+        <v>397</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>496</v>
+        <v>398</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>497</v>
+        <v>399</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>498</v>
+        <v>400</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>499</v>
+        <v>401</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>500</v>
+        <v>402</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>501</v>
+        <v>403</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>502</v>
+        <v>404</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>503</v>
+        <v>405</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>504</v>
+        <v>406</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>505</v>
+        <v>407</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>506</v>
+        <v>408</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>507</v>
+        <v>409</v>
       </c>
       <c r="AD1" s="11" t="s">
-        <v>508</v>
+        <v>410</v>
       </c>
       <c r="AE1" s="11" t="s">
-        <v>509</v>
+        <v>411</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>510</v>
+        <v>412</v>
       </c>
       <c r="AG1" s="11" t="s">
-        <v>511</v>
+        <v>413</v>
       </c>
       <c r="AH1" s="11" t="s">
-        <v>512</v>
+        <v>414</v>
       </c>
       <c r="AI1" s="11" t="s">
-        <v>513</v>
+        <v>415</v>
       </c>
       <c r="AJ1" s="11" t="s">
-        <v>514</v>
+        <v>416</v>
       </c>
       <c r="AK1" s="11" t="s">
-        <v>515</v>
+        <v>417</v>
       </c>
       <c r="AL1" s="11" t="s">
-        <v>516</v>
+        <v>418</v>
       </c>
       <c r="AM1" s="11" t="s">
-        <v>517</v>
+        <v>419</v>
       </c>
       <c r="AN1" s="11" t="s">
-        <v>518</v>
+        <v>420</v>
       </c>
       <c r="AO1" s="11" t="s">
-        <v>519</v>
+        <v>421</v>
       </c>
       <c r="AP1" s="11" t="s">
-        <v>520</v>
+        <v>422</v>
       </c>
       <c r="AQ1" s="11" t="s">
-        <v>521</v>
+        <v>423</v>
       </c>
       <c r="AR1" s="11" t="s">
-        <v>522</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:44">
       <c r="A2" s="13" t="s">
-        <v>540</v>
+        <v>442</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>544</v>
+        <v>446</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>545</v>
+        <v>447</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>546</v>
+        <v>448</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>547</v>
+        <v>449</v>
       </c>
       <c r="J2" t="s">
-        <v>548</v>
+        <v>450</v>
       </c>
       <c r="L2" t="s">
-        <v>549</v>
+        <v>451</v>
       </c>
       <c r="M2" t="s">
-        <v>550</v>
+        <v>452</v>
       </c>
       <c r="N2" t="s">
-        <v>551</v>
+        <v>453</v>
       </c>
       <c r="O2" t="s">
-        <v>552</v>
+        <v>454</v>
       </c>
       <c r="AN2" t="s">
-        <v>553</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:44">
       <c r="A3" s="13" t="s">
-        <v>540</v>
+        <v>442</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>554</v>
+        <v>456</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>555</v>
+        <v>457</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>556</v>
+        <v>458</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>557</v>
+        <v>459</v>
       </c>
       <c r="J3" t="s">
-        <v>558</v>
+        <v>460</v>
       </c>
       <c r="L3" t="s">
-        <v>549</v>
+        <v>451</v>
       </c>
       <c r="M3" t="s">
-        <v>559</v>
+        <v>461</v>
       </c>
       <c r="N3" t="s">
-        <v>551</v>
+        <v>453</v>
       </c>
       <c r="O3" t="s">
-        <v>552</v>
+        <v>454</v>
       </c>
       <c r="AN3" t="s">
-        <v>560</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="13" t="s">
-        <v>540</v>
+        <v>442</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>561</v>
+        <v>463</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>562</v>
+        <v>464</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>563</v>
+        <v>465</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>564</v>
+        <v>466</v>
       </c>
       <c r="J4" t="s">
-        <v>565</v>
+        <v>467</v>
       </c>
       <c r="L4" t="s">
-        <v>549</v>
+        <v>451</v>
       </c>
       <c r="M4" t="s">
-        <v>566</v>
+        <v>468</v>
       </c>
       <c r="N4" t="s">
-        <v>551</v>
+        <v>453</v>
       </c>
       <c r="O4" t="s">
-        <v>552</v>
+        <v>454</v>
       </c>
       <c r="AN4" t="s">
-        <v>567</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:44">
       <c r="A5" s="13" t="s">
-        <v>540</v>
+        <v>442</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>568</v>
+        <v>470</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>569</v>
+        <v>471</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>570</v>
+        <v>472</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>571</v>
+        <v>473</v>
       </c>
       <c r="J5" t="s">
-        <v>572</v>
+        <v>474</v>
       </c>
       <c r="L5" t="s">
-        <v>549</v>
+        <v>451</v>
       </c>
       <c r="M5" t="s">
-        <v>573</v>
+        <v>475</v>
       </c>
       <c r="N5" t="s">
-        <v>551</v>
+        <v>453</v>
       </c>
       <c r="O5" t="s">
-        <v>574</v>
+        <v>476</v>
       </c>
       <c r="AN5" t="s">
-        <v>575</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:44">
       <c r="A6" s="13" t="s">
-        <v>542</v>
+        <v>444</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>576</v>
+        <v>478</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>577</v>
+        <v>479</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>578</v>
+        <v>480</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>547</v>
+        <v>449</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>557</v>
+        <v>459</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>564</v>
+        <v>466</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>571</v>
+        <v>473</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>579</v>
+        <v>481</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>580</v>
+        <v>482</v>
       </c>
       <c r="M6" t="s">
-        <v>581</v>
+        <v>483</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>582</v>
+        <v>484</v>
       </c>
       <c r="O6" t="s">
-        <v>583</v>
+        <v>485</v>
       </c>
       <c r="AN6" t="s">
-        <v>553</v>
+        <v>455</v>
       </c>
       <c r="AO6" t="s">
-        <v>560</v>
+        <v>462</v>
       </c>
       <c r="AP6" t="s">
-        <v>567</v>
+        <v>469</v>
       </c>
       <c r="AQ6" t="s">
-        <v>575</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:44">
       <c r="A7" s="13" t="s">
-        <v>542</v>
+        <v>444</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>576</v>
+        <v>478</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>584</v>
+        <v>486</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>585</v>
+        <v>487</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>557</v>
+        <v>459</v>
       </c>
       <c r="J7" t="s">
-        <v>586</v>
+        <v>488</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>580</v>
+        <v>482</v>
       </c>
       <c r="M7" t="s">
-        <v>581</v>
+        <v>483</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>582</v>
+        <v>484</v>
       </c>
       <c r="O7" t="s">
-        <v>587</v>
+        <v>489</v>
       </c>
       <c r="AN7" t="s">
-        <v>560</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:44">
       <c r="A8" s="13" t="s">
-        <v>542</v>
+        <v>444</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>576</v>
+        <v>478</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>588</v>
+        <v>490</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>589</v>
+        <v>491</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>564</v>
+        <v>466</v>
       </c>
       <c r="J8" t="s">
-        <v>590</v>
+        <v>492</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>580</v>
+        <v>482</v>
       </c>
       <c r="M8" t="s">
-        <v>591</v>
+        <v>493</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>582</v>
+        <v>484</v>
       </c>
       <c r="O8" t="s">
-        <v>583</v>
+        <v>485</v>
       </c>
       <c r="AN8" t="s">
-        <v>567</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:44">
       <c r="A9" s="13" t="s">
-        <v>542</v>
+        <v>444</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>576</v>
+        <v>478</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>592</v>
+        <v>494</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>593</v>
+        <v>495</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>571</v>
+        <v>473</v>
       </c>
       <c r="J9" t="s">
-        <v>594</v>
+        <v>496</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>580</v>
+        <v>482</v>
       </c>
       <c r="M9" t="s">
-        <v>591</v>
+        <v>493</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>582</v>
+        <v>484</v>
       </c>
       <c r="O9" t="s">
-        <v>587</v>
+        <v>489</v>
       </c>
       <c r="AN9" t="s">
-        <v>575</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -9274,13 +6684,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>523</v>
+        <v>425</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>524</v>
+        <v>426</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>525</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -9298,28 +6708,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="11" t="s">
-        <v>523</v>
+        <v>425</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>526</v>
+        <v>428</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>527</v>
+        <v>429</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>528</v>
+        <v>430</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>529</v>
+        <v>431</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>530</v>
+        <v>432</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>531</v>
+        <v>433</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>532</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -9340,16 +6750,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>533</v>
+        <v>435</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>529</v>
+        <v>431</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>534</v>
+        <v>436</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>535</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -9363,10 +6773,10 @@
         <v>273</v>
       </c>
       <c r="D2" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E2" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9380,10 +6790,10 @@
         <v>273</v>
       </c>
       <c r="D3" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E3" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -9397,10 +6807,10 @@
         <v>273</v>
       </c>
       <c r="D4" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E4" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9414,10 +6824,10 @@
         <v>273</v>
       </c>
       <c r="D5" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E5" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9431,10 +6841,10 @@
         <v>273</v>
       </c>
       <c r="D6" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E6" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -9448,10 +6858,10 @@
         <v>273</v>
       </c>
       <c r="D7" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E7" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -9465,10 +6875,10 @@
         <v>273</v>
       </c>
       <c r="D8" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E8" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -9482,10 +6892,10 @@
         <v>273</v>
       </c>
       <c r="D9" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E9" t="s">
-        <v>538</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -9499,10 +6909,10 @@
         <v>273</v>
       </c>
       <c r="D10" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E10" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -9516,10 +6926,10 @@
         <v>273</v>
       </c>
       <c r="D11" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E11" t="s">
-        <v>538</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -9533,10 +6943,10 @@
         <v>273</v>
       </c>
       <c r="D12" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E12" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -9550,10 +6960,10 @@
         <v>273</v>
       </c>
       <c r="D13" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E13" t="s">
-        <v>539</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -9567,10 +6977,10 @@
         <v>273</v>
       </c>
       <c r="D14" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E14" t="s">
-        <v>539</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -9584,10 +6994,10 @@
         <v>273</v>
       </c>
       <c r="D15" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E15" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -9601,10 +7011,10 @@
         <v>273</v>
       </c>
       <c r="D16" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E16" t="s">
-        <v>538</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -9618,10 +7028,10 @@
         <v>273</v>
       </c>
       <c r="D17" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E17" t="s">
-        <v>538</v>
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -9635,10 +7045,10 @@
         <v>273</v>
       </c>
       <c r="D18" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E18" t="s">
-        <v>538</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -9652,10 +7062,10 @@
         <v>273</v>
       </c>
       <c r="D19" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E19" t="s">
-        <v>538</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -9669,10 +7079,10 @@
         <v>273</v>
       </c>
       <c r="D20" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E20" t="s">
-        <v>538</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -9686,10 +7096,10 @@
         <v>273</v>
       </c>
       <c r="D21" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E21" t="s">
-        <v>538</v>
+        <v>440</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -9703,10 +7113,10 @@
         <v>273</v>
       </c>
       <c r="D22" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E22" t="s">
-        <v>538</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -9720,10 +7130,10 @@
         <v>273</v>
       </c>
       <c r="D23" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E23" t="s">
-        <v>538</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -9737,10 +7147,10 @@
         <v>273</v>
       </c>
       <c r="D24" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E24" t="s">
-        <v>538</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -9754,10 +7164,10 @@
         <v>273</v>
       </c>
       <c r="D25" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E25" t="s">
-        <v>538</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -9771,10 +7181,10 @@
         <v>273</v>
       </c>
       <c r="D26" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E26" t="s">
-        <v>538</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -9788,10 +7198,10 @@
         <v>273</v>
       </c>
       <c r="D27" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E27" t="s">
-        <v>538</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -9805,10 +7215,10 @@
         <v>273</v>
       </c>
       <c r="D28" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E28" t="s">
-        <v>538</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -9822,10 +7232,10 @@
         <v>273</v>
       </c>
       <c r="D29" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E29" t="s">
-        <v>538</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -9839,10 +7249,10 @@
         <v>273</v>
       </c>
       <c r="D30" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E30" t="s">
-        <v>538</v>
+        <v>440</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -9856,10 +7266,10 @@
         <v>273</v>
       </c>
       <c r="D31" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E31" t="s">
-        <v>538</v>
+        <v>440</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -9873,10 +7283,10 @@
         <v>273</v>
       </c>
       <c r="D32" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E32" t="s">
-        <v>538</v>
+        <v>440</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -9890,10 +7300,10 @@
         <v>273</v>
       </c>
       <c r="D33" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E33" t="s">
-        <v>538</v>
+        <v>440</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -9907,10 +7317,10 @@
         <v>273</v>
       </c>
       <c r="D34" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E34" t="s">
-        <v>538</v>
+        <v>440</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -9924,10 +7334,10 @@
         <v>273</v>
       </c>
       <c r="D35" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E35" t="s">
-        <v>538</v>
+        <v>440</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -9941,10 +7351,10 @@
         <v>273</v>
       </c>
       <c r="D36" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E36" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -9958,10 +7368,10 @@
         <v>273</v>
       </c>
       <c r="D37" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E37" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -9975,10 +7385,10 @@
         <v>273</v>
       </c>
       <c r="D38" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E38" t="s">
-        <v>538</v>
+        <v>440</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -9992,10 +7402,10 @@
         <v>273</v>
       </c>
       <c r="D39" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E39" t="s">
-        <v>538</v>
+        <v>440</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -10009,10 +7419,10 @@
         <v>273</v>
       </c>
       <c r="D40" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E40" t="s">
-        <v>538</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -10026,10 +7436,10 @@
         <v>273</v>
       </c>
       <c r="D41" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E41" t="s">
-        <v>538</v>
+        <v>440</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -10043,10 +7453,10 @@
         <v>273</v>
       </c>
       <c r="D42" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E42" t="s">
-        <v>538</v>
+        <v>440</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -10060,10 +7470,10 @@
         <v>273</v>
       </c>
       <c r="D43" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E43" t="s">
-        <v>538</v>
+        <v>440</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -10077,10 +7487,10 @@
         <v>273</v>
       </c>
       <c r="D44" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E44" t="s">
-        <v>538</v>
+        <v>440</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -10094,10 +7504,10 @@
         <v>273</v>
       </c>
       <c r="D45" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E45" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -10111,10 +7521,10 @@
         <v>273</v>
       </c>
       <c r="D46" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E46" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -10128,10 +7538,10 @@
         <v>273</v>
       </c>
       <c r="D47" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E47" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -10145,10 +7555,10 @@
         <v>273</v>
       </c>
       <c r="D48" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E48" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -10162,10 +7572,10 @@
         <v>273</v>
       </c>
       <c r="D49" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E49" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -10179,10 +7589,10 @@
         <v>273</v>
       </c>
       <c r="D50" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E50" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -10196,10 +7606,10 @@
         <v>273</v>
       </c>
       <c r="D51" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E51" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -10213,10 +7623,10 @@
         <v>273</v>
       </c>
       <c r="D52" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E52" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -10230,10 +7640,10 @@
         <v>273</v>
       </c>
       <c r="D53" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E53" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -10247,10 +7657,10 @@
         <v>273</v>
       </c>
       <c r="D54" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E54" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -10264,10 +7674,10 @@
         <v>273</v>
       </c>
       <c r="D55" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E55" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -10281,10 +7691,10 @@
         <v>273</v>
       </c>
       <c r="D56" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E56" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -10298,10 +7708,10 @@
         <v>273</v>
       </c>
       <c r="D57" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E57" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -10315,10 +7725,10 @@
         <v>273</v>
       </c>
       <c r="D58" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E58" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -10332,10 +7742,10 @@
         <v>273</v>
       </c>
       <c r="D59" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E59" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -10349,10 +7759,10 @@
         <v>273</v>
       </c>
       <c r="D60" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E60" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -10366,10 +7776,10 @@
         <v>273</v>
       </c>
       <c r="D61" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E61" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -10383,10 +7793,10 @@
         <v>273</v>
       </c>
       <c r="D62" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E62" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -10400,10 +7810,10 @@
         <v>273</v>
       </c>
       <c r="D63" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E63" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -10417,10 +7827,10 @@
         <v>273</v>
       </c>
       <c r="D64" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E64" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -10434,10 +7844,10 @@
         <v>273</v>
       </c>
       <c r="D65" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E65" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -10451,10 +7861,10 @@
         <v>273</v>
       </c>
       <c r="D66" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E66" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -10468,10 +7878,10 @@
         <v>273</v>
       </c>
       <c r="D67" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E67" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -10485,10 +7895,10 @@
         <v>273</v>
       </c>
       <c r="D68" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E68" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -10502,10 +7912,10 @@
         <v>273</v>
       </c>
       <c r="D69" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E69" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -10519,10 +7929,10 @@
         <v>273</v>
       </c>
       <c r="D70" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E70" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -10536,10 +7946,10 @@
         <v>273</v>
       </c>
       <c r="D71" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E71" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -10553,10 +7963,10 @@
         <v>273</v>
       </c>
       <c r="D72" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E72" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -10570,10 +7980,10 @@
         <v>273</v>
       </c>
       <c r="D73" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E73" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -10587,10 +7997,10 @@
         <v>273</v>
       </c>
       <c r="D74" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E74" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -10604,10 +8014,10 @@
         <v>273</v>
       </c>
       <c r="D75" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E75" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -10621,10 +8031,10 @@
         <v>273</v>
       </c>
       <c r="D76" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E76" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -10638,10 +8048,10 @@
         <v>273</v>
       </c>
       <c r="D77" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E77" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -10655,10 +8065,10 @@
         <v>273</v>
       </c>
       <c r="D78" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E78" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -10672,10 +8082,10 @@
         <v>273</v>
       </c>
       <c r="D79" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E79" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -10689,10 +8099,10 @@
         <v>273</v>
       </c>
       <c r="D80" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E80" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -10706,10 +8116,10 @@
         <v>273</v>
       </c>
       <c r="D81" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E81" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -10723,10 +8133,10 @@
         <v>273</v>
       </c>
       <c r="D82" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E82" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -10740,10 +8150,10 @@
         <v>273</v>
       </c>
       <c r="D83" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E83" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -10757,10 +8167,10 @@
         <v>273</v>
       </c>
       <c r="D84" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E84" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -10774,10 +8184,10 @@
         <v>273</v>
       </c>
       <c r="D85" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E85" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -10791,10 +8201,10 @@
         <v>273</v>
       </c>
       <c r="D86" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E86" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -10808,10 +8218,10 @@
         <v>273</v>
       </c>
       <c r="D87" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E87" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -10825,10 +8235,10 @@
         <v>273</v>
       </c>
       <c r="D88" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E88" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -10842,10 +8252,10 @@
         <v>273</v>
       </c>
       <c r="D89" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E89" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -10859,10 +8269,10 @@
         <v>273</v>
       </c>
       <c r="D90" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E90" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -10876,10 +8286,10 @@
         <v>273</v>
       </c>
       <c r="D91" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E91" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -10893,10 +8303,10 @@
         <v>273</v>
       </c>
       <c r="D92" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E92" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -10910,10 +8320,10 @@
         <v>273</v>
       </c>
       <c r="D93" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E93" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -10927,10 +8337,10 @@
         <v>273</v>
       </c>
       <c r="D94" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E94" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -10944,10 +8354,10 @@
         <v>273</v>
       </c>
       <c r="D95" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E95" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -10961,10 +8371,10 @@
         <v>273</v>
       </c>
       <c r="D96" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E96" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -10978,10 +8388,10 @@
         <v>273</v>
       </c>
       <c r="D97" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E97" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -10995,10 +8405,10 @@
         <v>273</v>
       </c>
       <c r="D98" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E98" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -11012,10 +8422,10 @@
         <v>273</v>
       </c>
       <c r="D99" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E99" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -11029,10 +8439,10 @@
         <v>273</v>
       </c>
       <c r="D100" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E100" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -11046,10 +8456,10 @@
         <v>273</v>
       </c>
       <c r="D101" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E101" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -11063,10 +8473,10 @@
         <v>273</v>
       </c>
       <c r="D102" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E102" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -11080,10 +8490,10 @@
         <v>273</v>
       </c>
       <c r="D103" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E103" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -11097,10 +8507,10 @@
         <v>273</v>
       </c>
       <c r="D104" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E104" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -11114,10 +8524,10 @@
         <v>273</v>
       </c>
       <c r="D105" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E105" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -11131,10 +8541,10 @@
         <v>273</v>
       </c>
       <c r="D106" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E106" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -11148,10 +8558,10 @@
         <v>273</v>
       </c>
       <c r="D107" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E107" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -11165,10 +8575,10 @@
         <v>273</v>
       </c>
       <c r="D108" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E108" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -11182,10 +8592,10 @@
         <v>273</v>
       </c>
       <c r="D109" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E109" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -11199,10 +8609,10 @@
         <v>273</v>
       </c>
       <c r="D110" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E110" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -11216,10 +8626,10 @@
         <v>273</v>
       </c>
       <c r="D111" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E111" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -11233,10 +8643,10 @@
         <v>273</v>
       </c>
       <c r="D112" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E112" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -11250,10 +8660,10 @@
         <v>273</v>
       </c>
       <c r="D113" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E113" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -11267,10 +8677,10 @@
         <v>273</v>
       </c>
       <c r="D114" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E114" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -11284,10 +8694,10 @@
         <v>273</v>
       </c>
       <c r="D115" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E115" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -11301,10 +8711,10 @@
         <v>273</v>
       </c>
       <c r="D116" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E116" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -11318,10 +8728,10 @@
         <v>273</v>
       </c>
       <c r="D117" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E117" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -11335,10 +8745,10 @@
         <v>273</v>
       </c>
       <c r="D118" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E118" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -11352,10 +8762,10 @@
         <v>273</v>
       </c>
       <c r="D119" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E119" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -11369,10 +8779,10 @@
         <v>273</v>
       </c>
       <c r="D120" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E120" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -11386,10 +8796,10 @@
         <v>273</v>
       </c>
       <c r="D121" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E121" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -11403,10 +8813,10 @@
         <v>273</v>
       </c>
       <c r="D122" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E122" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -11420,10 +8830,10 @@
         <v>273</v>
       </c>
       <c r="D123" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E123" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -11437,10 +8847,10 @@
         <v>273</v>
       </c>
       <c r="D124" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E124" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -11454,10 +8864,10 @@
         <v>273</v>
       </c>
       <c r="D125" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E125" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -11471,10 +8881,10 @@
         <v>273</v>
       </c>
       <c r="D126" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E126" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -11488,10 +8898,10 @@
         <v>273</v>
       </c>
       <c r="D127" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E127" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -11505,10 +8915,10 @@
         <v>273</v>
       </c>
       <c r="D128" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="E128" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
